--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_no_assign_models_results_Date_threshold_100_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="175">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -85,115 +85,112 @@
     <t>0.811</t>
   </si>
   <si>
-    <t>0.979+/-0.005</t>
-  </si>
-  <si>
-    <t>0.739+/-0.068</t>
-  </si>
-  <si>
-    <t>0.676</t>
-  </si>
-  <si>
-    <t>0.271+/-0.007</t>
-  </si>
-  <si>
-    <t>0.157+/-0.038</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>7.552+/-0.337</t>
+    <t>0.978+/-0.004</t>
+  </si>
+  <si>
+    <t>0.721+/-0.067</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.272+/-0.005</t>
+  </si>
+  <si>
+    <t>0.16+/-0.04</t>
+  </si>
+  <si>
+    <t>0.128</t>
+  </si>
+  <si>
+    <t>5.314+/-0.068</t>
   </si>
   <si>
     <t>0.822+/-0.001</t>
   </si>
   <si>
-    <t>0.811+/-0.0</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.722+/-0.016</t>
-  </si>
-  <si>
-    <t>0.614+/-0.058</t>
-  </si>
-  <si>
-    <t>0.563</t>
-  </si>
-  <si>
-    <t>0.191+/-0.005</t>
-  </si>
-  <si>
-    <t>0.162+/-0.035</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>1.206+/-0.047</t>
-  </si>
-  <si>
-    <t>0.85+/-0.001</t>
-  </si>
-  <si>
-    <t>0.817+/-0.0</t>
-  </si>
-  <si>
-    <t>0.812</t>
-  </si>
-  <si>
-    <t>0.902+/-0.007</t>
-  </si>
-  <si>
-    <t>0.646+/-0.059</t>
-  </si>
-  <si>
-    <t>0.627</t>
+    <t>0.813+/-0.0</t>
+  </si>
+  <si>
+    <t>0.806</t>
+  </si>
+  <si>
+    <t>0.723+/-0.01</t>
+  </si>
+  <si>
+    <t>0.635+/-0.04</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.191+/-0.007</t>
+  </si>
+  <si>
+    <t>0.168+/-0.031</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.92+/-0.018</t>
+  </si>
+  <si>
+    <t>0.851+/-0.001</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.904+/-0.009</t>
+  </si>
+  <si>
+    <t>0.669+/-0.048</t>
+  </si>
+  <si>
+    <t>0.598</t>
   </si>
   <si>
     <t>0.289+/-0.005</t>
   </si>
   <si>
-    <t>0.196+/-0.039</t>
+    <t>0.195+/-0.035</t>
   </si>
   <si>
     <t>0.171</t>
   </si>
   <si>
-    <t>4.505+/-0.094</t>
-  </si>
-  <si>
-    <t>0.817+/-0.001</t>
-  </si>
-  <si>
-    <t>0.81+/-0.0</t>
-  </si>
-  <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.872+/-0.01</t>
-  </si>
-  <si>
-    <t>0.737+/-0.075</t>
-  </si>
-  <si>
-    <t>0.806</t>
-  </si>
-  <si>
-    <t>0.107+/-0.006</t>
-  </si>
-  <si>
-    <t>0.089+/-0.033</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>0.667+/-0.029</t>
+    <t>3.503+/-0.052</t>
+  </si>
+  <si>
+    <t>0.818+/-0.001</t>
+  </si>
+  <si>
+    <t>0.812+/-0.0</t>
+  </si>
+  <si>
+    <t>0.809</t>
+  </si>
+  <si>
+    <t>0.872+/-0.008</t>
+  </si>
+  <si>
+    <t>0.749+/-0.094</t>
+  </si>
+  <si>
+    <t>0.771</t>
+  </si>
+  <si>
+    <t>0.111+/-0.006</t>
+  </si>
+  <si>
+    <t>0.096+/-0.033</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>0.504+/-0.015</t>
   </si>
   <si>
     <t>0.85+/-0.0</t>
@@ -208,28 +205,28 @@
     <t>0.864+/-0.0</t>
   </si>
   <si>
-    <t>0.859</t>
-  </si>
-  <si>
-    <t>0.986+/-0.006</t>
-  </si>
-  <si>
-    <t>0.73+/-0.065</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.263+/-0.008</t>
-  </si>
-  <si>
-    <t>0.151+/-0.027</t>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.984+/-0.005</t>
+  </si>
+  <si>
+    <t>0.736+/-0.072</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.267+/-0.008</t>
+  </si>
+  <si>
+    <t>0.147+/-0.029</t>
   </si>
   <si>
     <t>0.118</t>
   </si>
   <si>
-    <t>6.248+/-0.2</t>
+    <t>5.413+/-0.073</t>
   </si>
   <si>
     <t>0.868+/-0.001</t>
@@ -241,82 +238,79 @@
     <t>0.855</t>
   </si>
   <si>
-    <t>0.741+/-0.012</t>
-  </si>
-  <si>
-    <t>0.669+/-0.098</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.186+/-0.008</t>
-  </si>
-  <si>
-    <t>0.158+/-0.023</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>1.247+/-0.047</t>
-  </si>
-  <si>
-    <t>0.891+/-0.002</t>
-  </si>
-  <si>
-    <t>0.857</t>
-  </si>
-  <si>
-    <t>0.944+/-0.01</t>
-  </si>
-  <si>
-    <t>0.678+/-0.06</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.287+/-0.01</t>
-  </si>
-  <si>
-    <t>0.186+/-0.027</t>
-  </si>
-  <si>
-    <t>0.143</t>
-  </si>
-  <si>
-    <t>4.726+/-0.068</t>
-  </si>
-  <si>
-    <t>0.863+/-0.001</t>
-  </si>
-  <si>
-    <t>0.859+/-0.0</t>
+    <t>0.738+/-0.011</t>
+  </si>
+  <si>
+    <t>0.657+/-0.088</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.183+/-0.007</t>
+  </si>
+  <si>
+    <t>0.156+/-0.029</t>
+  </si>
+  <si>
+    <t>0.924+/-0.018</t>
+  </si>
+  <si>
+    <t>0.89+/-0.001</t>
+  </si>
+  <si>
+    <t>0.863+/-0.0</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>0.942+/-0.005</t>
+  </si>
+  <si>
+    <t>0.663+/-0.055</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.286+/-0.01</t>
+  </si>
+  <si>
+    <t>0.178+/-0.029</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>3.624+/-0.066</t>
+  </si>
+  <si>
+    <t>0.864+/-0.001</t>
   </si>
   <si>
     <t>0.856</t>
   </si>
   <si>
-    <t>0.883+/-0.011</t>
-  </si>
-  <si>
-    <t>0.786+/-0.155</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.103+/-0.006</t>
-  </si>
-  <si>
-    <t>0.088+/-0.024</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>0.651+/-0.029</t>
+    <t>0.864+/-0.013</t>
+  </si>
+  <si>
+    <t>0.804+/-0.129</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.109+/-0.004</t>
+  </si>
+  <si>
+    <t>0.094+/-0.022</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.504+/-0.011</t>
   </si>
   <si>
     <t>0.723+/-0.0</t>
@@ -325,85 +319,85 @@
     <t>0.723</t>
   </si>
   <si>
-    <t>0.79+/-0.002</t>
+    <t>0.791+/-0.002</t>
   </si>
   <si>
     <t>0.728+/-0.0</t>
   </si>
   <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.989+/-0.001</t>
-  </si>
-  <si>
-    <t>0.586+/-0.122</t>
-  </si>
-  <si>
-    <t>0.621</t>
-  </si>
-  <si>
-    <t>0.246+/-0.008</t>
-  </si>
-  <si>
-    <t>0.069+/-0.021</t>
+    <t>0.989+/-0.003</t>
+  </si>
+  <si>
+    <t>0.579+/-0.084</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.249+/-0.006</t>
+  </si>
+  <si>
+    <t>0.068+/-0.017</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>6.83+/-0.223</t>
+    <t>5.646+/-0.115</t>
   </si>
   <si>
     <t>0.737+/-0.001</t>
   </si>
   <si>
-    <t>0.65+/-0.013</t>
-  </si>
-  <si>
-    <t>0.495+/-0.064</t>
-  </si>
-  <si>
-    <t>0.494</t>
-  </si>
-  <si>
-    <t>0.108+/-0.006</t>
-  </si>
-  <si>
-    <t>0.081+/-0.019</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>1.088+/-0.088</t>
-  </si>
-  <si>
-    <t>0.771+/-0.002</t>
-  </si>
-  <si>
-    <t>0.725</t>
-  </si>
-  <si>
-    <t>0.868+/-0.008</t>
-  </si>
-  <si>
-    <t>0.55+/-0.049</t>
-  </si>
-  <si>
-    <t>0.514</t>
-  </si>
-  <si>
-    <t>0.206+/-0.007</t>
-  </si>
-  <si>
-    <t>0.109+/-0.024</t>
-  </si>
-  <si>
-    <t>0.105</t>
-  </si>
-  <si>
-    <t>4.485+/-0.417</t>
+    <t>0.722+/-0.0</t>
+  </si>
+  <si>
+    <t>0.652+/-0.016</t>
+  </si>
+  <si>
+    <t>0.486+/-0.057</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.108+/-0.004</t>
+  </si>
+  <si>
+    <t>0.078+/-0.017</t>
+  </si>
+  <si>
+    <t>0.958+/-0.043</t>
+  </si>
+  <si>
+    <t>0.771+/-0.001</t>
+  </si>
+  <si>
+    <t>0.727+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.869+/-0.006</t>
+  </si>
+  <si>
+    <t>0.539+/-0.04</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>0.205+/-0.006</t>
+  </si>
+  <si>
+    <t>0.105+/-0.022</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>4.06+/-0.197</t>
   </si>
   <si>
     <t>0.73+/-0.001</t>
@@ -412,22 +406,28 @@
     <t>0.726+/-0.0</t>
   </si>
   <si>
-    <t>0.875+/-0.027</t>
-  </si>
-  <si>
-    <t>0.682+/-0.177</t>
-  </si>
-  <si>
-    <t>0.028+/-0.003</t>
-  </si>
-  <si>
-    <t>0.017+/-0.007</t>
-  </si>
-  <si>
-    <t>0.012</t>
-  </si>
-  <si>
-    <t>0.817+/-0.025</t>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.879+/-0.036</t>
+  </si>
+  <si>
+    <t>0.663+/-0.183</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.029+/-0.003</t>
+  </si>
+  <si>
+    <t>0.017+/-0.008</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.74+/-0.034</t>
   </si>
   <si>
     <t>0.692+/-0.0</t>
@@ -436,121 +436,112 @@
     <t>0.692</t>
   </si>
   <si>
-    <t>0.754+/-0.003</t>
-  </si>
-  <si>
-    <t>0.698+/-0.0</t>
+    <t>0.752+/-0.003</t>
+  </si>
+  <si>
+    <t>0.696+/-0.0</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.986+/-0.004</t>
+  </si>
+  <si>
+    <t>0.562+/-0.095</t>
+  </si>
+  <si>
+    <t>0.574</t>
+  </si>
+  <si>
+    <t>0.198+/-0.011</t>
+  </si>
+  <si>
+    <t>0.062+/-0.017</t>
+  </si>
+  <si>
+    <t>5.885+/-0.523</t>
+  </si>
+  <si>
+    <t>0.707+/-0.002</t>
+  </si>
+  <si>
+    <t>0.698</t>
+  </si>
+  <si>
+    <t>0.662+/-0.018</t>
+  </si>
+  <si>
+    <t>0.502+/-0.069</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.1+/-0.006</t>
+  </si>
+  <si>
+    <t>0.073+/-0.014</t>
+  </si>
+  <si>
+    <t>1.034+/-0.066</t>
+  </si>
+  <si>
+    <t>0.743+/-0.001</t>
+  </si>
+  <si>
+    <t>0.695+/-0.0</t>
   </si>
   <si>
     <t>0.696</t>
   </si>
   <si>
-    <t>0.988+/-0.004</t>
-  </si>
-  <si>
-    <t>0.579+/-0.086</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.205+/-0.01</t>
-  </si>
-  <si>
-    <t>0.066+/-0.017</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>8.045+/-0.241</t>
-  </si>
-  <si>
-    <t>0.707+/-0.001</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.658+/-0.014</t>
-  </si>
-  <si>
-    <t>0.512+/-0.033</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>0.099+/-0.005</t>
-  </si>
-  <si>
-    <t>0.079+/-0.014</t>
-  </si>
-  <si>
-    <t>0.086</t>
-  </si>
-  <si>
-    <t>1.267+/-0.038</t>
-  </si>
-  <si>
-    <t>0.742+/-0.002</t>
-  </si>
-  <si>
-    <t>0.696+/-0.0</t>
+    <t>0.88+/-0.011</t>
+  </si>
+  <si>
+    <t>0.522+/-0.047</t>
+  </si>
+  <si>
+    <t>0.535</t>
+  </si>
+  <si>
+    <t>0.192+/-0.005</t>
+  </si>
+  <si>
+    <t>0.096+/-0.015</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>3.623+/-0.218</t>
+  </si>
+  <si>
+    <t>0.7+/-0.001</t>
   </si>
   <si>
     <t>0.695</t>
   </si>
   <si>
-    <t>0.874+/-0.016</t>
-  </si>
-  <si>
-    <t>0.536+/-0.062</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.19+/-0.004</t>
-  </si>
-  <si>
-    <t>0.1+/-0.017</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
-    <t>4.608+/-0.109</t>
-  </si>
-  <si>
-    <t>0.7+/-0.001</t>
-  </si>
-  <si>
-    <t>0.695+/-0.0</t>
-  </si>
-  <si>
-    <t>0.873+/-0.022</t>
-  </si>
-  <si>
-    <t>0.666+/-0.172</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.031+/-0.003</t>
-  </si>
-  <si>
-    <t>0.021+/-0.01</t>
-  </si>
-  <si>
-    <t>0.019</t>
-  </si>
-  <si>
-    <t>0.829+/-0.019</t>
+    <t>0.85+/-0.017</t>
+  </si>
+  <si>
+    <t>0.634+/-0.201</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.034+/-0.003</t>
+  </si>
+  <si>
+    <t>0.024+/-0.013</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.503+/-0.013</t>
   </si>
 </sst>
 </file>
@@ -948,7 +939,7 @@
         <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -965,10 +956,10 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -985,10 +976,10 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1005,10 +996,10 @@
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1025,10 +1016,10 @@
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1045,10 +1036,10 @@
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1065,10 +1056,10 @@
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1085,10 +1076,10 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1105,10 +1096,10 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1125,10 +1116,10 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1166,19 +1157,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1186,19 +1177,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1206,19 +1197,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1229,16 +1220,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1249,16 +1240,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1269,16 +1260,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1289,16 +1280,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1309,16 +1300,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1329,16 +1320,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1349,16 +1340,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1396,19 +1387,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>102</v>
-      </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1416,19 +1407,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1436,19 +1427,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1459,16 +1450,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1479,16 +1470,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1499,16 +1490,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1519,13 +1510,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
         <v>133</v>
@@ -1539,13 +1530,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>134</v>
@@ -1559,13 +1550,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>135</v>
@@ -1579,13 +1570,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
         <v>136</v>
@@ -1632,13 +1623,13 @@
         <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1652,13 +1643,13 @@
         <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1672,13 +1663,13 @@
         <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1692,13 +1683,13 @@
         <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1712,13 +1703,13 @@
         <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1732,13 +1723,13 @@
         <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1752,13 +1743,13 @@
         <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1772,13 +1763,13 @@
         <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1789,16 +1780,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1809,16 +1800,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
